--- a/SIA IDI Definitions Library Catalogue.xlsx
+++ b/SIA IDI Definitions Library Catalogue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NotBackedUp\github_migration\sia\definitions_library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NotBackedUp\git\definitions_library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309D4F5E-4D57-458D-BBC1-19985A1598FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C9A97F-4BFE-4BAF-888B-4AA04412D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="529">
   <si>
     <t>Domain</t>
   </si>
@@ -1997,6 +1997,18 @@
   </si>
   <si>
     <t>The definitions provided in this library were determined by the Social Investment Agency (previously Social Wellbeing Agency) to be suitable in the context of a specific project. Whether or not these definitions are suitable for other projects depends on the context of those projects. Researchers using definitions from this library will need to determine for themselves to what extent the definitions provided here are suitable for reuse in their projects. While the Agency provides this library as a resource to support IDI research, it provides no guarantee that these definitions are fit for reuse.</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Driver licence code module now available</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Code module now available</t>
   </si>
 </sst>
 </file>
@@ -2503,9 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2595,7 +2605,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>163</v>
+        <v>527</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -2953,7 +2963,7 @@
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>163</v>
+        <v>527</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -3028,7 +3038,7 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
-        <v>163</v>
+        <v>527</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>402</v>
@@ -4835,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>163</v>
+        <v>527</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>116</v>
@@ -4864,7 +4874,7 @@
         <v>5</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>163</v>
+        <v>527</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>120</v>
@@ -4968,9 +4978,11 @@
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I96" s="4"/>
+        <v>527</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
@@ -4993,9 +5005,11 @@
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I97" s="4"/>
+        <v>527</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
@@ -5043,9 +5057,11 @@
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I99" s="4"/>
+        <v>525</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>526</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I99" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/SIA IDI Definitions Library Catalogue.xlsx
+++ b/SIA IDI Definitions Library Catalogue.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NotBackedUp\git\definitions_library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NotBackedUp\definitions_library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C9A97F-4BFE-4BAF-888B-4AA04412D246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BBB3FC-9A6A-4E5F-ADA6-294EEC6ADC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
     <sheet name="Published" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Published!$A$1:$I$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Published!$A$1:$I$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="745">
   <si>
     <t>Domain</t>
   </si>
@@ -573,18 +573,6 @@
   </si>
   <si>
     <t>Summary of health and wellbeing questions from GSS 2016.</t>
-  </si>
-  <si>
-    <t>GSS 2014-2018 for vulnerable seniors</t>
-  </si>
-  <si>
-    <t>gss1418_seniors.sql</t>
-  </si>
-  <si>
-    <t>Indicators from GSS 2014-2018 for MSD vulnerable seniors project</t>
-  </si>
-  <si>
-    <t>Health and wellbeing indicators from GSS 2014-2018 for vulnerable seniors.</t>
   </si>
   <si>
     <t>Census 2018 household</t>
@@ -2009,6 +1997,842 @@
   </si>
   <si>
     <t>Code module now available</t>
+  </si>
+  <si>
+    <t>ECE prior participation</t>
+  </si>
+  <si>
+    <t>Maori medium education</t>
+  </si>
+  <si>
+    <t>school attendance</t>
+  </si>
+  <si>
+    <t>school disciplinary actions</t>
+  </si>
+  <si>
+    <t>structural school enrollment changes</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202406].[moe_clean].[ece_duration]
+[IDI_Metadata_202406].[moe_school].[ece_classif23_code]
+[IDI_Metadata_202406].[moe_school].[ece_duration23_code]
+[IDI_Clean_202406].[moe_clean].[student_enrol]</t>
+  </si>
+  <si>
+    <t>ECE participation in the six months prior to starting school for children who turned 5</t>
+  </si>
+  <si>
+    <t>For identifying children (who turned five in the 12 months prior to the end of the yr) who attended any ECE prior to starting school.</t>
+  </si>
+  <si>
+    <t>ECE prior participation.sql</t>
+  </si>
+  <si>
+    <t>Maori medium education.sql</t>
+  </si>
+  <si>
+    <t>school attendance.sql</t>
+  </si>
+  <si>
+    <t>school disciplinary actions.sql</t>
+  </si>
+  <si>
+    <t>structural school enrollment changes.sql</t>
+  </si>
+  <si>
+    <t>Comparing cases where students make structural shift from one school to another.</t>
+  </si>
+  <si>
+    <t>Structural moves are a movement between schools forced by the structure of the schooling system
+(e.g. a student moving between primary and intermediate, or intermediate and secondary school).</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202210].[moe_clean].[student_enrol]
+[IDI_Metadata].[clean_read_CLASSIFICATIONS].[moe_Provider_Profile_20190830]
+[IDI_Metadata_202210].[moe_school].[provider_type_code]
+[IDI_Metadata_202210].[moe_school].[sch_region_code]</t>
+  </si>
+  <si>
+    <t>This code identifies students who have experiencied stand downs or suspensions in the past 12 months.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202210].[moe_clean].[student_interventions]</t>
+  </si>
+  <si>
+    <t>Student attendance and engagement are critical factors for student achievement. 
+The levels of SSEE's help provide indications of where engagement in productive learning may be absent.</t>
+  </si>
+  <si>
+    <t>Enrollment at school with indication that education is Maori medium.</t>
+  </si>
+  <si>
+    <t>[IDI_Adhoc].[clean_read_MOE].[School_Roll_Return_20**]</t>
+  </si>
+  <si>
+    <t>Identifying enrollment in Maori medium education</t>
+  </si>
+  <si>
+    <t>School attendance divided into three categories: Present, Justified absence, Unjustified absence.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moe_clean].[school_student_attendance]
+[IDI_Metadata].[clean_read_CLASSIFICATIONS].[moe_attendance_codes]</t>
+  </si>
+  <si>
+    <t>Creating measures of educational engagement.</t>
+  </si>
+  <si>
+    <t>Potential caregivers</t>
+  </si>
+  <si>
+    <t>potential caregivers.sql</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202406].[dia_clean].[births]
+[IDI_Clean_202406].[msd_clean].[msd_child]
+[IDI_Clean_202406].[msd_clean].[msd_partner]
+[IDI_Clean_202406].[wff_clean].[fam_children]
+[IDI_Clean_202406].[wff_clean].[fam_return_parents]</t>
+  </si>
+  <si>
+    <t>Identify adults who might have a caregiving role for a child</t>
+  </si>
+  <si>
+    <t>Considring changes in caregiving arrangements, supporitng the construction of households or families.</t>
+  </si>
+  <si>
+    <t>govt_spend</t>
+  </si>
+  <si>
+    <t>cost reference file load.sql</t>
+  </si>
+  <si>
+    <t>Cost reference file load</t>
+  </si>
+  <si>
+    <t>ACC - med fees and workers compensation</t>
+  </si>
+  <si>
+    <t>Health - community laboratory testing</t>
+  </si>
+  <si>
+    <t>Health - disability support services</t>
+  </si>
+  <si>
+    <t>Health - general medical subsidy</t>
+  </si>
+  <si>
+    <t>Health - Maternity</t>
+  </si>
+  <si>
+    <t>Health - non-admitted hospital patients</t>
+  </si>
+  <si>
+    <t>Health - pharmaceuticals</t>
+  </si>
+  <si>
+    <t>Health - primary care capitation</t>
+  </si>
+  <si>
+    <t>Health - public hospital discharge</t>
+  </si>
+  <si>
+    <t>Health - specialist acute mental health</t>
+  </si>
+  <si>
+    <t>Health - vaccination</t>
+  </si>
+  <si>
+    <t>Health - Wellchild</t>
+  </si>
+  <si>
+    <t>Housing - Accommodation Supplement</t>
+  </si>
+  <si>
+    <t>Housing - Emergency Housing</t>
+  </si>
+  <si>
+    <t>Housing - Social housing</t>
+  </si>
+  <si>
+    <t>IRD - income and tax</t>
+  </si>
+  <si>
+    <t>JUS - Corrections - track 1 interventions</t>
+  </si>
+  <si>
+    <t>JUS - Corrections sentences</t>
+  </si>
+  <si>
+    <t>JUS - Courts</t>
+  </si>
+  <si>
+    <t>JUS - Police</t>
+  </si>
+  <si>
+    <t>MOE - highest qualifications</t>
+  </si>
+  <si>
+    <t>MOE - learning supports</t>
+  </si>
+  <si>
+    <t>MOE - schooling</t>
+  </si>
+  <si>
+    <t>MOE - tertiary SAC funded</t>
+  </si>
+  <si>
+    <t>MSD Adhoc T3</t>
+  </si>
+  <si>
+    <t>MSD Main Benefit T1</t>
+  </si>
+  <si>
+    <t>MSD Supplementary T2</t>
+  </si>
+  <si>
+    <t>OT - care and protection and youth justice</t>
+  </si>
+  <si>
+    <t>Premature life years lost</t>
+  </si>
+  <si>
+    <t>cost ACC - med fees and workers compensation.sql</t>
+  </si>
+  <si>
+    <t>cost Health - community laboratory testing.sql</t>
+  </si>
+  <si>
+    <t>cost Health - disability support services.sql</t>
+  </si>
+  <si>
+    <t>cost Health - general medical subsidy.sql</t>
+  </si>
+  <si>
+    <t>cost Health - Maternity.sql</t>
+  </si>
+  <si>
+    <t>cost Health - non-admitted hospital patients.sql</t>
+  </si>
+  <si>
+    <t>cost Health - pharmaceuticals.sql</t>
+  </si>
+  <si>
+    <t>cost Health - primary care capitation.sql</t>
+  </si>
+  <si>
+    <t>cost Health - public hospital discharge.sql</t>
+  </si>
+  <si>
+    <t>cost Health - specialist acute mental health.sql</t>
+  </si>
+  <si>
+    <t>cost Health - vaccination.sql</t>
+  </si>
+  <si>
+    <t>cost Health - Wellchild.sql</t>
+  </si>
+  <si>
+    <t>cost Housing - Accommodation Supplement.sql</t>
+  </si>
+  <si>
+    <t>cost Housing - Emergency Housing.sql</t>
+  </si>
+  <si>
+    <t>cost Housing - Social housing.sql</t>
+  </si>
+  <si>
+    <t>cost IRD - income and tax.sql</t>
+  </si>
+  <si>
+    <t>cost JUS - Corrections - track 1 interventions.sql</t>
+  </si>
+  <si>
+    <t>cost JUS - Corrections sentences.sql</t>
+  </si>
+  <si>
+    <t>cost JUS - Courts.sql</t>
+  </si>
+  <si>
+    <t>cost JUS - Police.sql</t>
+  </si>
+  <si>
+    <t>cost MOE - highest qualifications.sql</t>
+  </si>
+  <si>
+    <t>cost MOE - learning supports.sql</t>
+  </si>
+  <si>
+    <t>cost MOE - schooling.sql</t>
+  </si>
+  <si>
+    <t>cost MOE - tertiary SAC funded.sql</t>
+  </si>
+  <si>
+    <t>cost MSD Adhoc T3.sql</t>
+  </si>
+  <si>
+    <t>cost MSD Main Benefit T1.sql</t>
+  </si>
+  <si>
+    <t>cost MSD Supplementary T2.sql</t>
+  </si>
+  <si>
+    <t>cost OT - care and protection and youth justice.sql</t>
+  </si>
+  <si>
+    <t>cost premature life years lost.sql</t>
+  </si>
+  <si>
+    <t>cost_ref_calendar_years.csv
+cost_ref_cpi_all_goods_2024.csv
+cost_ref_MoH_purchase_unit_pricing.csv
+cost_ref_MoJ_offense_cat_pricing.csv
+cost_ref_MoJ_offense_to_category_mapping.csv
+cost_ref_snz_life_expectancy.csv</t>
+  </si>
+  <si>
+    <t>Reference files loaded by cost reference file load.sql</t>
+  </si>
+  <si>
+    <t>January 2025 - Ongoing discussion with OT regarding data quality</t>
+  </si>
+  <si>
+    <t>Load into Sandpit, reference files for cost calculation.
+Includes year &amp; date table, CPI table, and event cost tables.</t>
+  </si>
+  <si>
+    <t>Load into Sandpit, reference files for cost calculation.</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[acc_clean].[claims]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate the costs incurred via ACC claims.
+Both in terms of medical fees, and also worker's compensation payments.</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs incurred for lab claims.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moh_clean].[lab_claims]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs incurred in providing Disability Support Services to individuals.</t>
+  </si>
+  <si>
+    <t>[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_service_hist_2022]
+[IDI_Clean_202410].[security].[concordance]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate the costs incurred
+when someone attends primary care but they are not enrolled 
+in the practice.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moh_clean].[gms_claims]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>Estimate cost of primary maternity services from conception to 6 weeks post birth</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moh_clean].[maternity_mother]
+[IDI_Clean_202410].[moh_clean].[maternity_baby]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_calendar_years]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs incurred in hospitals delivering national non-admitted patient services to individuals.</t>
+  </si>
+  <si>
+    <t>[IDI_Sandpit].[DL-MAA2023-46].[ref_MoH_purchase_unit_pricing]
+[IDI_Clean_202410].[moh_clean].[nnpac]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs incurred subsidising the filling of pharmaceutical prescriptions to individuals.</t>
+  </si>
+  <si>
+    <t>[IDI_Sandpit].[DL-MAA2023-46].[defn_cost_pharmaceuticals]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this is to estimate the costs incurred relating to primary health care visits.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moh_clean].[nes_enrolment]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs associated with hospital stays.</t>
+  </si>
+  <si>
+    <t>[IDI_CLEAN_202410].[MOH_CLEAN].[PUB_FUND_HOSP_DISCHARGES_EVENT]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this is to estimate the costs incurred for specialist MHA services. </t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moh_clean].[primhd]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_calendar_years]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[moh_primhd_pu_pricing_20170720]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>Estimate cost of gp vists and vaccine costs</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moh_clean].[nir_event]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>Estimated cost of Wellchild</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moh_clean].[maternity_baby]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs incurred in providing Accommodation Supplement to individuals.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[msd_clean].[msd_second_tier_expenditure]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs incurred in providing Emergency Housing to individuals.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[msd_clean].[msd_third_tier_expenditure]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs incurred in providing social housing to individuals.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[hnz_clean].[tenancy_snapshot]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this to estimate:
+1. The total income of individuals
+2. The tax payable on the total income of individuals
+3. The proportion of people earning a wage/salary.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[data].[income_cal_yr_summary]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs incurred in providing rehabilitation programmes to individuals 
+who are in the care of Corrections.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[cor_clean].[ra_programmes]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate the costs incurred by Corrections through the supervision of community and custodial sentences.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[cor_clean].[ra_ofndr_major_mgmt_period_a]
+[IDI_Metadata_202410].[cor].ov_mmc_code
+[IDI_Sandpit].[DL-MAA2023-46].[ref_calendar_years]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this is to estimate the costs incurred by MoJ when someone goes to criminal court.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moj_clean].[charges]
+[IDI_Metadata_202410].[moj].[court_code]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_MoJ_offense_to_category_map]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_MoJ_offense_cat_pricing]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this is to estimate the costs incurred by police when investigating offences. </t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[pol_clean].[post_count_offenders]
+[IDI_Clean_202410].[pol_clean].[post_count_victimisations]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]
+[IDI_Clean_202410].[pol_clean].[pre_count_offenders]
+[IDI_Clean_202410].[pol_clean].[pre_count_victimisations]
+[IDI_Metadata_202410].[moj].[offence_code]</t>
+  </si>
+  <si>
+    <t>Highest qualification by National Qualification Framework (NQF)</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[data].[apc_time_series]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The purpose of this is to estimate the costs incurred by MoE through the provision of learning support. </t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moe_clean].[student_interventions]
+[IDI_Metadata_202410].[moe_school].[intervention_type_code]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>Enrollment in compulsory schooling (primary, intermediate, and secondary)</t>
+  </si>
+  <si>
+    <t>[IDI_Sandpit].[DL-MAA2023-46].[ref_calendar_years]
+[IDI_Clean_202410].[moe_clean].[student_enrol]</t>
+  </si>
+  <si>
+    <t>Enrollment in Tertiary study eligable for government funding</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moe_clean].[enrolment]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate the tier 3 payments paid by MSD. This includes all special needs/hardship grants except Emergency Housing</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate main benefits paid by MSD. This does not include Superannuation/Veteran's Pension.</t>
+  </si>
+  <si>
+    <t>[IDI_Community].[cm_read_MSD_ISE_MAIN_BENEFIT].[msd_ise_main_benefit_202410]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_calendar_years]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate the tier 2 payments paid by MSD (excluding Accommodation Supplement)</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[msd_clean].[msd_second_tier_expenditure]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_calendar_years]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>The purpose of this cost is to estimate costs incurred by Oranga Tamariki through events that have been coded to individuals.
+This includes placements, investigations, family group conferences, preparing for court, etc.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[cyf_clean].[cyf_cec_client_event_cost]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>Estmate value of premature years of life lost</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].data.personal_detail
+[IDI_Sandpit].[DL-MAA2023-46].[ref_life_expectancy]
+[IDI_Sandpit].[DL-MAA2023-46].[ref_cpi_all_goods]</t>
+  </si>
+  <si>
+    <t>Part of collection for estimating events and their costs in a consistent manner.</t>
+  </si>
+  <si>
+    <t>homelessness admin.sql</t>
+  </si>
+  <si>
+    <t>homelessness Census.sql</t>
+  </si>
+  <si>
+    <t>Homelessness from admin</t>
+  </si>
+  <si>
+    <t>Homelessness from Census</t>
+  </si>
+  <si>
+    <t>To identify people who are homeless or who have severly inadequate housing</t>
+  </si>
+  <si>
+    <t>[IDI_Metadata].[clean_read_CLASSIFICATIONS].[CEN_OCCDWELTYPE]
+[IDI_Clean_20211020].[msd_clean].[msd_third_tier_expenditure]
+[IDI_Metadata].[clean_read_CLASSIFICATIONS].[msd_income_support_pay_reason]
+[IDI_Clean_20211020].[msd_clean].[msd_partner]
+[IDI_Clean_20211020].[msd_clean].[msd_child]
+[IDI_Clean_20211020].[hnz_clean].[new_applications]
+[IDI_Clean_20211020].[hnz_clean].[new_applications_household]</t>
+  </si>
+  <si>
+    <t>Homelessness, including temporary accomodation from Census</t>
+  </si>
+  <si>
+    <t>Homelessness / severly inadequate housing from admin data</t>
+  </si>
+  <si>
+    <t>[IDI_Metadata].[clean_read_CLASSIFICATIONS].[CEN_OCCDWELTYPE]
+[IDI_Clean_202403].[cen_clean].[census_dwelling_2018]
+[IDI_Clean_202403].[data].[address_notification_full]
+[IDI_Clean_202403].[data].[personal_detail]</t>
+  </si>
+  <si>
+    <t>serious and persistent youth offending</t>
+  </si>
+  <si>
+    <t>child of incarcerated parent</t>
+  </si>
+  <si>
+    <t>serious and persistent youth offending.sql</t>
+  </si>
+  <si>
+    <t>child of incarcerated parent.sql</t>
+  </si>
+  <si>
+    <t>Offending by youth that is both (1) serious and (2) persistent.</t>
+  </si>
+  <si>
+    <t>Persistent requires 3 or more distinct offending events within 12 months.
+Serious requires at least one of those offences has a max penalty &gt;= 7 years imprisonment.</t>
+  </si>
+  <si>
+    <t>[IDI_Metadata_202403].[moj].[offence_code]
+[IDI_Clean_202403].[pol_clean].[pre_count_offenders]
+[IDI_Clean_202403].[msd_clean].[msd_child]
+[IDI_Clean_202403].[msd_clean].[msd_partner]
+[IDI_Clean_202403].[dia_clean].[births]
+[IDI_Clean_202403].[wff_clean].[fam_children]
+[IDI_Clean_202403].[wff_clean].[fam_return_parents] 
+[IDI_Clean_202403].[data].[personal_detail]</t>
+  </si>
+  <si>
+    <t>Identifies children with parents who have had any interaction with corrections in the past 12 months, and the subset of which whose parents were incarcerated (in prison or in remand)</t>
+  </si>
+  <si>
+    <t>There's evidence to suggest children with a parent in prison experience a wide range of negative impacts, including long-term poor health, educational and social outcomes and are at high risk of future improsonment themselves.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_{refresh}].[cor_clean].[ra_ofndr_major_mgmt_period_a]
+[IDI_Clean_{refresh}.[data].[personal_detail]</t>
+  </si>
+  <si>
+    <t>born in New Zealand</t>
+  </si>
+  <si>
+    <t>born in New Zealand.sql</t>
+  </si>
+  <si>
+    <t>Supplement ethnicity and identity information by including Country of Birth (COB).</t>
+  </si>
+  <si>
+    <t>[IDI_Clean].[cen_clean].[census_individual_2018]
+[IDI_Clean].[cen_clean].[census_individual_2013]
+[IDI_Clean].[dia_clean].[births]
+[IDI_Clean].[cus_clean].[journey]
+[IDI_Clean].[nzta_clean].[dlr_historic]
+[IDI_Clean].[nzta_clean].[drivers_licence_register]
+[IDI_Clean].[dol_clean].[movement_identities]</t>
+  </si>
+  <si>
+    <t>OT interactions</t>
+  </si>
+  <si>
+    <t>OT interactions.sql</t>
+  </si>
+  <si>
+    <t>Understanding whether tamariki and rangatahi have experienced trauma</t>
+  </si>
+  <si>
+    <t>Indicators of whether a young person (under 18) has previous had:
+an investigation following from a report of concern, a family group conference, or a placement</t>
+  </si>
+  <si>
+    <t>[IDI_Clean].[cyf_clean].[cyf_investgtns_event]
+[IDI_Clean].[cyf_clean].[cyf_investgtns_details]
+[IDI_Clean].[cyf_clean].[cyf_ev_cli_fgc_cys_f]
+[IDI_Clean].[cyf_clean].[cyf_placements_event]
+[IDI_Clean].[cyf_clean].[cyf_placements_details]</t>
+  </si>
+  <si>
+    <t>developmental delay</t>
+  </si>
+  <si>
+    <t>down's syndromme</t>
+  </si>
+  <si>
+    <t>epilepsy</t>
+  </si>
+  <si>
+    <t>National Booking Reporting System (NBRS) standard</t>
+  </si>
+  <si>
+    <t>suicide and attempted suicide</t>
+  </si>
+  <si>
+    <t>Attention Deficit Hyperactivity Disorder ADHD</t>
+  </si>
+  <si>
+    <t>Autism Spectrum Disorder</t>
+  </si>
+  <si>
+    <t>bipolar disorder</t>
+  </si>
+  <si>
+    <t>developmental delay.sql</t>
+  </si>
+  <si>
+    <t>down's syndromme.sql</t>
+  </si>
+  <si>
+    <t>epilepsy.sql</t>
+  </si>
+  <si>
+    <t>National Booking Reporting System (NBRS) standard.sql</t>
+  </si>
+  <si>
+    <t>suicide and attempted suicide.sql</t>
+  </si>
+  <si>
+    <t>Attention Deficit Hyperactivity Disorder ADHD.sql</t>
+  </si>
+  <si>
+    <t>Autism Spectrum Disorder.sql</t>
+  </si>
+  <si>
+    <t>bipolar disorder.sql</t>
+  </si>
+  <si>
+    <t>Developmental disability/delay / global developmental delay</t>
+  </si>
+  <si>
+    <t>Evidence where people are effected by this condition.</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202203].[moh_clean].[nnpac]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[primhd_diagnoses]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[moh_primhd_mhinc]
+[IDI_Clean_202203].[moh_clean].[pop_cohort_demographics]
+[IDI_Clean_202203].[moh_clean].[pub_fund_hosp_discharges_diag]
+[IDI_Clean_202203].[moh_clean].[priv_fund_hosp_discharges_event]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_disability]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_needs_assessment]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_referral]</t>
+  </si>
+  <si>
+    <t>Observed bipolar disorder</t>
+  </si>
+  <si>
+    <t>[IDI_Sandpit].[DL-MAA2021-49].[cw_202306_mha_bipolar]
+[IDI_Clean_202306].[moh_clean].[mortality_diagnosis]
+[IDI_Metadata_202310].moh_pharm.dim_form_pack_subsidy_code
+[IDI_Clean_202403].[moh_clean].[pharmaceutical]
+[IDI_Clean_202306].[moh_clean].[pharmaceutical]
+[IDI_Clean_202306].[moh_clean].interrai
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].moh_disability
+[IDI_Clean_20211020].[security].[concordance]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_needs_assessment] 
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_referral] 
+[IDI_Clean_202306].[msd_clean].[msd_incapacity]
+[IDI_Clean_202306].[moh_clean].[lab_claims]
+[IDI_Clean_202306].[moh_clean].[priv_fund_hosp_discharges_event]
+[IDI_Clean_202306].[moh_clean].[pub_fund_hosp_discharges_diag]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[moh_primhd_mhinc]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[primhd_diagnoses]</t>
+  </si>
+  <si>
+    <t>Observed evidence of Down's syndrome</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202303].[moh_clean].[pub_fund_hosp_discharges_diag]
+[IDI_Clean_202303].[moh_clean].[priv_fund_hosp_discharges_diag]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_disability]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[primhd_diagnoses]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[moh_primhd_mhinc]
+[IDI_Clean_202303].[moh_clean].[mortality_diagnosis]</t>
+  </si>
+  <si>
+    <t>Observed evidence of Epilepsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDI_Clean_202310].[moh_clean].[pub_fund_hosp_discharges_diag]
+[IDI_Clean_202310].[moh_clean].[pub_fund_hosp_discharges_event]
+[IDI_Clean_202310].[moh_clean].[priv_fund_hosp_discharges_event]
+[IDI_Clean_202310].[moh_clean].[priv_fund_hosp_discharges_diag]
+[IDI_Clean_202310].[msd_clean].[msd_incapacity]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_disability]
+[IDI_Clean_202310].[security].[concordance]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_needs_assessment]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_referral]
+</t>
+  </si>
+  <si>
+    <t>National Booking System is the system that is used to manage health waitlists.</t>
+  </si>
+  <si>
+    <t>Investigating wait times and scheduling</t>
+  </si>
+  <si>
+    <t>[IDI_Adhoc].[clean_read_MOH_NBRS].[moh_nbrs]
+[IDI_Metadata].[clean_read_CLASSIFICATIONS_CLIN_DIAG_CODES].[clinical_codes]
+[IDI_Metadata_202406].[moh_nmds].[health_speciality23_code]</t>
+  </si>
+  <si>
+    <t>All observed attempted suicide and completed suicide</t>
+  </si>
+  <si>
+    <t>Evidence of suicide and attempted suicide.</t>
+  </si>
+  <si>
+    <t>[IDI_Sandpit].[DL-MAA2023-46].[cw_202406_suicide]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_support_needs]
+[IDI_Clean_202406].[moh_clean].[PRIMHD]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[primhd_diagnoses]
+[IDI_Clean_202406].[msd_clean].[msd_customer]
+[IDI_Clean_202406].[cyf_clean].[cyf_abuse_event]
+[IDI_Clean_202406].[acc_clean].[medical_codes]
+[IDI_Clean_202406].[acc_clean].[claims]
+[IDI_Clean_202406].[moh_clean].[mortality_registrations]
+[IDI_Adhoc].[clean_read_CYF].[cyf_gateway_cli_needs]
+[IDI_Clean_202406].[moh_clean].[pub_fund_hosp_discharges_diag]
+[IDI_Clean_202406].[moh_clean].[priv_fund_hosp_discharges_event]
+[IDI_Clean_202406].[pol_clean].[nia_links]</t>
+  </si>
+  <si>
+    <t>Aim is to have identify people with ADHD
+Supports calculation of ADHD incidence and prevalence</t>
+  </si>
+  <si>
+    <t>[IDI_Clean_202410].[moh_clean].[mortality_diagnosis]
+[IDI_Clean_202410].[moh_clean].[mortality_registrations]
+[IDI_Clean_202410].[moh_clean].[pharmaceutical]
+[IDI_Clean_202410].[moh_clean].[priv_fund_hosp_discharges_event]
+[IDI_Clean_202410].[moh_clean].[priv_fund_hosp_discharges_diag]
+[IDI_Clean_202410].[moh_clean].[pub_fund_hosp_discharges_diag]
+[IDI_Clean_202410].[moh_clean].[pub_fund_hosp_discharges_event]
+[IDI_Metadata_202410].moh_pharm.dim_form_pack_subsidy_code
+[IDI_Clean_202410].[security].[concordance]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_needs_assessment_2022]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_referral_2022]
+[IDI_Adhoc].[clean_read_CYF].[cyf_gateway_cli_needs]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[moh_primhd_mhinc]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].moh_disability_2022</t>
+  </si>
+  <si>
+    <t>Indicator evidence of Autism Spectrum Disorder (from diagnosis, treatment solely for autism spectrum disorder, or treatment for ASD and other conditions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IDI_Clean_202403].[moh_clean].[nnpac]
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[primhd_diagnoses] 
+[IDI_Clean_202403].[moh_clean].[pop_cohort_demographics]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_disability] 
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_needs_assessment]
+[IDI_Adhoc].[clean_read_MOH_SOCRATES].[moh_referral]
+[IDI_Clean_202403].[moh_clean].[priv_fund_hosp_discharges_event] 
+[IDI_Clean_202403].[moh_clean].[priv_fund_hosp_discharges_diag] 
+[IDI_Adhoc].[clean_read_MOH_PRIMHD].[moh_primhd_mhinc] 
+[IDI_Clean_202403].[security].[concordance] 
+[IDI_Adhoc].[clean_read_CYF].[cyf_gateway_cli_needs] </t>
+  </si>
+  <si>
+    <t>Debt to MOJ Fines</t>
+  </si>
+  <si>
+    <t>from dependencies only</t>
   </si>
 </sst>
 </file>
@@ -2397,12 +3221,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -2410,12 +3234,12 @@
     </row>
     <row r="4" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2428,7 +3252,7 @@
     </row>
     <row r="8" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -2436,12 +3260,12 @@
     </row>
     <row r="10" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2449,12 +3273,12 @@
     </row>
     <row r="13" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -2462,12 +3286,12 @@
     </row>
     <row r="16" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2475,12 +3299,12 @@
     </row>
     <row r="19" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2488,12 +3312,12 @@
     </row>
     <row r="22" spans="1:1" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -2513,9 +3337,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2524,7 +3353,7 @@
     <col min="3" max="3" width="36.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="79.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="31.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="34.85546875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.7109375" style="3"/>
@@ -2561,22 +3390,22 @@
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
@@ -2586,47 +3415,47 @@
     </row>
     <row r="3" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
@@ -2636,22 +3465,22 @@
     </row>
     <row r="5" spans="1:9" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>65</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
@@ -2664,19 +3493,19 @@
         <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
@@ -2689,16 +3518,16 @@
         <v>67</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>126</v>
@@ -2714,16 +3543,16 @@
         <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>126</v>
@@ -2734,21 +3563,21 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>165</v>
@@ -2757,23 +3586,25 @@
       <c r="H9" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>167</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>165</v>
@@ -2783,89 +3614,87 @@
         <v>163</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>176</v>
+        <v>406</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>177</v>
+        <v>408</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>178</v>
+        <v>409</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>126</v>
+        <v>407</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="I12" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
@@ -2873,24 +3702,26 @@
         <v>415</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="143.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -2898,26 +3729,24 @@
         <v>419</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -2931,14 +3760,14 @@
         <v>426</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>424</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>163</v>
+        <v>523</v>
       </c>
       <c r="I16" s="4"/>
     </row>
@@ -2950,24 +3779,24 @@
         <v>427</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>430</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>527</v>
+        <v>163</v>
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
@@ -2975,16 +3804,16 @@
         <v>431</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>434</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
@@ -2997,98 +3826,94 @@
         <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>435</v>
+        <v>525</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>437</v>
+        <v>531</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>438</v>
+        <v>532</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>61</v>
+        <v>533</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>436</v>
+        <v>530</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
-        <v>163</v>
+        <v>521</v>
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>398</v>
+        <v>526</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>401</v>
+        <v>546</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>77</v>
+        <v>534</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>399</v>
+        <v>545</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>403</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>404</v>
+        <v>547</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>405</v>
+        <v>549</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>78</v>
+        <v>535</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>399</v>
+        <v>548</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>406</v>
+        <v>528</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>408</v>
+        <v>541</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>409</v>
+        <v>543</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>79</v>
+        <v>536</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>407</v>
+        <v>542</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
@@ -3096,24 +3921,24 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>357</v>
+        <v>529</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>88</v>
+        <v>537</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>343</v>
+        <v>540</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
@@ -3121,74 +3946,78 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
@@ -3196,24 +4025,24 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -3221,24 +4050,24 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
@@ -3246,24 +4075,24 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>191</v>
+        <v>359</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>192</v>
+        <v>469</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>195</v>
+        <v>360</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
@@ -3271,78 +4100,74 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>237</v>
+        <v>362</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>248</v>
+        <v>364</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>238</v>
+        <v>365</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>196</v>
+        <v>366</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>197</v>
+        <v>368</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>198</v>
+        <v>369</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>200</v>
+        <v>367</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>212</v>
+        <v>372</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>211</v>
+        <v>373</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>210</v>
+        <v>371</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
@@ -3350,234 +4175,242 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>318</v>
+        <v>550</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>320</v>
+        <v>553</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>321</v>
+        <v>554</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>96</v>
+        <v>551</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>319</v>
+        <v>552</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>462</v>
+        <v>557</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>202</v>
+        <v>619</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>203</v>
+        <v>620</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>97</v>
+        <v>556</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>621</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>616</v>
+      </c>
       <c r="H34" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I34" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>322</v>
+        <v>558</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>324</v>
+        <v>623</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>325</v>
+        <v>679</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>98</v>
+        <v>587</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>622</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H35" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>214</v>
+        <v>559</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>217</v>
+        <v>624</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>216</v>
+        <v>679</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>213</v>
+        <v>588</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>625</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H36" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>204</v>
+        <v>560</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>205</v>
+        <v>626</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>206</v>
+        <v>679</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>99</v>
+        <v>589</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>627</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H37" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>218</v>
+        <v>561</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>219</v>
+        <v>628</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>220</v>
+        <v>679</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>221</v>
+        <v>590</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>629</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H38" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>250</v>
+        <v>562</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>249</v>
+        <v>630</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>251</v>
+        <v>679</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>246</v>
+        <v>591</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>252</v>
+        <v>631</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>241</v>
+        <v>617</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>273</v>
+        <v>563</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>274</v>
+        <v>632</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>275</v>
+        <v>679</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>100</v>
+        <v>592</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="4"/>
+        <v>633</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H40" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>277</v>
+        <v>564</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>279</v>
+        <v>634</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>278</v>
+        <v>679</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>464</v>
+        <v>593</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>635</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H41" s="4" t="s">
         <v>163</v>
       </c>
@@ -3585,124 +4418,134 @@
     </row>
     <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>223</v>
+        <v>565</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>224</v>
+        <v>679</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>226</v>
+        <v>594</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>637</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H42" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>282</v>
+        <v>566</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>283</v>
+        <v>638</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>284</v>
+        <v>679</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>101</v>
+        <v>595</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G43" s="4"/>
+        <v>639</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H43" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>292</v>
+        <v>640</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>293</v>
+        <v>679</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>102</v>
+        <v>596</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G44" s="4"/>
+        <v>641</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H44" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>295</v>
+        <v>568</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>296</v>
+        <v>642</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>460</v>
+        <v>679</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>103</v>
+        <v>597</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>643</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H45" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>94</v>
+        <v>555</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>228</v>
+        <v>569</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>230</v>
+        <v>644</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>229</v>
+        <v>679</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>231</v>
+        <v>598</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="4"/>
+        <v>645</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="H46" s="4" t="s">
         <v>163</v>
       </c>
@@ -3710,453 +4553,483 @@
     </row>
     <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:9" ht="345" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" ht="345" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:9" ht="405" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="B64" s="4" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>333</v>
+        <v>188</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>334</v>
+        <v>189</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>331</v>
+        <v>191</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
@@ -4164,76 +5037,78 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="375" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>149</v>
+        <v>233</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G65" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="H65" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I66" s="4"/>
+      <c r="I66" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
@@ -4243,97 +5118,103 @@
     </row>
     <row r="68" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>439</v>
+        <v>314</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>441</v>
+        <v>316</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>475</v>
+        <v>317</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>484</v>
+        <v>96</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>440</v>
+        <v>315</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I68" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>444</v>
+        <v>198</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>445</v>
+        <v>199</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>443</v>
+        <v>197</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I69" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>448</v>
+        <v>321</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>449</v>
+        <v>319</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I70" s="4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>450</v>
+        <v>210</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>452</v>
+        <v>213</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>453</v>
+        <v>212</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>451</v>
+        <v>211</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4" t="s">
@@ -4341,24 +5222,24 @@
       </c>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>454</v>
+        <v>200</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>455</v>
+        <v>201</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>453</v>
+        <v>202</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>456</v>
+        <v>203</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4" t="s">
@@ -4366,22 +5247,24 @@
       </c>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="C73" s="4" t="s">
-        <v>458</v>
+        <v>215</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>459</v>
+        <v>216</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>85</v>
+        <v>217</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>457</v>
+        <v>218</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4" t="s">
@@ -4389,51 +5272,51 @@
       </c>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>481</v>
+        <v>246</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>482</v>
+        <v>245</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>453</v>
+        <v>247</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="G74" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="H74" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I74" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>476</v>
+        <v>269</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>477</v>
+        <v>270</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>478</v>
+        <v>271</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>479</v>
+        <v>100</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>480</v>
+        <v>272</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4" t="s">
@@ -4441,24 +5324,24 @@
       </c>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>379</v>
+        <v>275</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>380</v>
+        <v>274</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>49</v>
+        <v>460</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>381</v>
+        <v>276</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4" t="s">
@@ -4466,24 +5349,24 @@
       </c>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>383</v>
+        <v>219</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>384</v>
+        <v>221</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>385</v>
+        <v>220</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>382</v>
+        <v>223</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4" t="s">
@@ -4491,24 +5374,24 @@
       </c>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>386</v>
+        <v>278</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>388</v>
+        <v>279</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>389</v>
+        <v>280</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>387</v>
+        <v>277</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
@@ -4516,24 +5399,24 @@
       </c>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>390</v>
+        <v>286</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>392</v>
+        <v>288</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>393</v>
+        <v>289</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>391</v>
+        <v>287</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
@@ -4541,51 +5424,49 @@
       </c>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>394</v>
+        <v>291</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>395</v>
+        <v>292</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>381</v>
+        <v>290</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I80" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>341</v>
+        <v>224</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>485</v>
+        <v>226</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>486</v>
+        <v>225</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>487</v>
+        <v>227</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>340</v>
+        <v>228</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
@@ -4593,24 +5474,24 @@
       </c>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>488</v>
+        <v>295</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>344</v>
+        <v>457</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4" t="s">
@@ -4618,78 +5499,78 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>345</v>
+        <v>238</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>493</v>
+        <v>243</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>494</v>
+        <v>241</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>346</v>
+        <v>239</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>506</v>
+        <v>250</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>507</v>
+        <v>252</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>509</v>
+        <v>251</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>505</v>
+        <v>249</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>504</v>
+        <v>253</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>163</v>
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>348</v>
+        <v>255</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>508</v>
+        <v>257</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>349</v>
+        <v>256</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>350</v>
+        <v>258</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4" t="s">
@@ -4697,24 +5578,24 @@
       </c>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>351</v>
+        <v>262</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>352</v>
+        <v>260</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4" t="s">
@@ -4722,24 +5603,24 @@
       </c>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>466</v>
+        <v>267</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>467</v>
+        <v>266</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>468</v>
+        <v>264</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>469</v>
+        <v>268</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4" t="s">
@@ -4747,24 +5628,24 @@
       </c>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>28</v>
+        <v>296</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>29</v>
+        <v>298</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>30</v>
+        <v>299</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
@@ -4772,24 +5653,24 @@
       </c>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>32</v>
+        <v>282</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>35</v>
+        <v>281</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
@@ -4797,107 +5678,99 @@
       </c>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G91" s="4"/>
       <c r="H91" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>117</v>
+        <v>307</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>118</v>
+        <v>309</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="G92" s="4"/>
       <c r="H92" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>8</v>
+        <v>311</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>113</v>
+        <v>312</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>23</v>
+        <v>313</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4" t="s">
@@ -4905,24 +5778,24 @@
       </c>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4" t="s">
@@ -4930,105 +5803,99 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>19</v>
+        <v>708</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>20</v>
+        <v>724</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>18</v>
+        <v>725</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>21</v>
+        <v>716</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>22</v>
+        <v>726</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I95" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>14</v>
+        <v>709</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>11</v>
+        <v>729</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>114</v>
+        <v>725</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>13</v>
+        <v>717</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>24</v>
+        <v>730</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="I96" s="4"/>
+    </row>
+    <row r="97" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>15</v>
+        <v>710</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>17</v>
+        <v>731</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>16</v>
+        <v>725</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>12</v>
+        <v>718</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>25</v>
+        <v>732</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>528</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I97" s="4"/>
     </row>
     <row r="98" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>132</v>
+        <v>711</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>470</v>
+        <v>733</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>133</v>
+        <v>734</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>40</v>
+        <v>719</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>135</v>
+        <v>735</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4" t="s">
@@ -5036,41 +5903,1294 @@
       </c>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>354</v>
+        <v>712</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>354</v>
+        <v>736</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>356</v>
+        <v>737</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>63</v>
+        <v>720</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>355</v>
+        <v>738</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
+      </c>
+      <c r="I99" s="4"/>
+    </row>
+    <row r="100" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I100" s="4"/>
+    </row>
+    <row r="101" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I103" s="4"/>
+    </row>
+    <row r="104" spans="1:9" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I110" s="4"/>
+    </row>
+    <row r="111" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I111" s="4"/>
+    </row>
+    <row r="112" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I112" s="4"/>
+    </row>
+    <row r="113" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I116" s="4"/>
+    </row>
+    <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I118" s="4"/>
+    </row>
+    <row r="119" spans="1:9" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I120" s="4"/>
+    </row>
+    <row r="121" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I121" s="4"/>
+    </row>
+    <row r="122" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I123" s="4"/>
+    </row>
+    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I126" s="4"/>
+    </row>
+    <row r="127" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" spans="1:9" ht="330" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I130" s="4"/>
+    </row>
+    <row r="131" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I131" s="4"/>
+    </row>
+    <row r="132" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I132" s="4"/>
+    </row>
+    <row r="133" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I134" s="4"/>
+    </row>
+    <row r="135" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I135" s="4"/>
+    </row>
+    <row r="136" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I136" s="4"/>
+    </row>
+    <row r="137" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I137" s="4"/>
+    </row>
+    <row r="138" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I141" s="4"/>
+    </row>
+    <row r="142" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I142" s="4"/>
+    </row>
+    <row r="143" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="I144" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="I145" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I146" s="4"/>
+    </row>
+    <row r="147" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I147" s="4"/>
+    </row>
+    <row r="148" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I99" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I99">
-      <sortCondition ref="A2:A99"/>
+  <autoFilter ref="A1:I148" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I148">
+      <sortCondition ref="A2:A148"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
-    <sortCondition ref="E2:E105"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I12">
+    <sortCondition ref="E2:E104"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
